--- a/AAII_Financials/Quarterly/SOR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SOR</t>
   </si>
@@ -303,9 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,78 +673,120 @@
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="K8" s="3">
         <v>3900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="M8" s="3">
         <v>3700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="N8" s="3">
         <v>3500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="O8" s="3">
         <v>2400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="P8" s="3">
         <v>3500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="Q8" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,57 +794,93 @@
         <v>1500</v>
       </c>
       <c r="E9" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="F9" s="3">
         <v>1400</v>
       </c>
       <c r="G9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I9" s="3">
         <v>1500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="P9" s="3">
         <v>2600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="K10" s="3">
         <v>2300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="L10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="M10" s="3">
         <v>2200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="N10" s="3">
         <v>1900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="P10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +892,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +927,26 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +974,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +1021,26 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +1068,26 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +1096,108 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E18" s="3">
         <v>2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="M18" s="3">
         <v>1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,37 +1209,61 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>51100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>18300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>41300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="K20" s="3">
         <v>23300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="L20" s="3">
         <v>21000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="M20" s="3">
         <v>24000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="O20" s="3">
         <v>-35400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="P20" s="3">
         <v>6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="Q20" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1069,8 +1291,26 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,37 +1338,73 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>53500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>44100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="K23" s="3">
         <v>25400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="L23" s="3">
         <v>23300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="M23" s="3">
         <v>25900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="O23" s="3">
         <v>-35900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="P23" s="3">
         <v>6800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="Q23" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1156,8 +1432,26 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1479,120 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>53500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>44100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="K26" s="3">
         <v>25400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="L26" s="3">
         <v>23300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="M26" s="3">
         <v>25900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="O26" s="3">
         <v>-35900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="P26" s="3">
         <v>6800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="Q26" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>53500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>44100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="K27" s="3">
         <v>25400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="L27" s="3">
         <v>23300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="M27" s="3">
         <v>25900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="O27" s="3">
         <v>-35900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="P27" s="3">
         <v>6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="Q27" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1620,26 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1667,26 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1714,26 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1761,120 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>35800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J32" s="3">
         <v>4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="K32" s="3">
         <v>-23300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="L32" s="3">
         <v>-21000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="M32" s="3">
         <v>-24000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="O32" s="3">
         <v>35400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="P32" s="3">
         <v>-6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="Q32" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>53500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>44100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="K33" s="3">
         <v>25400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="L33" s="3">
         <v>23300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="M33" s="3">
         <v>25900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="O33" s="3">
         <v>-35900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="P33" s="3">
         <v>6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="Q33" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1902,125 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>53500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>44100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="K35" s="3">
         <v>25400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="L35" s="3">
         <v>23300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="M35" s="3">
         <v>25900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="O35" s="3">
         <v>-35900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="P35" s="3">
         <v>6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="Q35" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +2032,14 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,22 +2051,28 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1564,8 +2086,26 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,37 +2133,73 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="N43" s="3">
         <v>4300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="O43" s="3">
         <v>5200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1651,37 +2227,73 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1709,37 +2321,73 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>411800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>387200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>347800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>383000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>358700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>324200</v>
+      </c>
+      <c r="J47" s="3">
         <v>384600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="K47" s="3">
         <v>387700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="L47" s="3">
         <v>375700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="M47" s="3">
         <v>356800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="N47" s="3">
         <v>332900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="O47" s="3">
         <v>633000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="P47" s="3">
         <v>687900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="Q47" s="3">
         <v>695900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1767,8 +2415,26 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1796,8 +2462,26 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +2509,26 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,8 +2556,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1883,8 +2603,26 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2650,73 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>413400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>390500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>352200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>386100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>359700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>325800</v>
+      </c>
+      <c r="J54" s="3">
         <v>385700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="K54" s="3">
         <v>389200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="L54" s="3">
         <v>376700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="M54" s="3">
         <v>357600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="N54" s="3">
         <v>337200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="O54" s="3">
         <v>638200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="P54" s="3">
         <v>688700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="Q54" s="3">
         <v>696600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2728,14 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,8 +2747,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1988,16 +2774,34 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2025,37 +2829,73 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="L59" s="3">
         <v>4500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="O59" s="3">
         <v>5300</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2083,8 +2923,26 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2112,8 +2970,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2141,8 +3017,26 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +3064,26 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +3111,26 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +3158,73 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="O66" s="3">
         <v>5700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +3236,14 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +3271,26 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +3318,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +3365,26 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +3412,73 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>16600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>53200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>35800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J72" s="3">
         <v>18400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="K72" s="3">
         <v>3900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="L72" s="3">
         <v>9000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="M72" s="3">
         <v>6800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="N72" s="3">
         <v>14200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="O72" s="3">
         <v>298900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="P72" s="3">
         <v>14600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="Q72" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +3506,26 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +3553,26 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +3600,73 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>408800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>381900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>340100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>376700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>359300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>321900</v>
+      </c>
+      <c r="J76" s="3">
         <v>381800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="K76" s="3">
         <v>388300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="L76" s="3">
         <v>371900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="M76" s="3">
         <v>355300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="N76" s="3">
         <v>336500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="O76" s="3">
         <v>632500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="P76" s="3">
         <v>688300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="Q76" s="3">
         <v>696200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +3694,125 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>53500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>44100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="K81" s="3">
         <v>25400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="L81" s="3">
         <v>23300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="M81" s="3">
         <v>25900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="O81" s="3">
         <v>-35900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="P81" s="3">
         <v>6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="Q81" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +3824,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2665,8 +3859,26 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +3906,26 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +3953,26 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +4000,26 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +4047,26 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +4094,73 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>53500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>44100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="K89" s="3">
         <v>25400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="L89" s="3">
         <v>23300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="M89" s="3">
         <v>25900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="O89" s="3">
         <v>-35900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="P89" s="3">
         <v>6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="Q89" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,8 +4172,14 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2881,8 +4207,26 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +4254,26 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,8 +4301,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2968,8 +4348,26 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,37 +4379,61 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H96" s="3">
         <v>-4300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="I96" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="L96" s="3">
         <v>-6000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="M96" s="3">
         <v>-6600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="N96" s="3">
         <v>-298300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="O96" s="3">
         <v>-19900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="P96" s="3">
         <v>-14700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="Q96" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +4461,26 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +4508,26 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,37 +4555,73 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-4600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="K100" s="3">
         <v>-9100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="L100" s="3">
         <v>-6700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="M100" s="3">
         <v>-7100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="N100" s="3">
         <v>-297900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="O100" s="3">
         <v>-19900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="P100" s="3">
         <v>-14700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="Q100" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3155,33 +4649,69 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>41800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>17400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>37400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-59900</v>
+      </c>
+      <c r="J102" s="3">
         <v>-6400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="K102" s="3">
         <v>16300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="L102" s="3">
         <v>16600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="M102" s="3">
         <v>18800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="N102" s="3">
         <v>-296000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="O102" s="3">
         <v>-55800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="P102" s="3">
         <v>-8000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="Q102" s="3">
         <v>24900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>SOR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,143 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E8" s="3">
         <v>6200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1400</v>
       </c>
       <c r="F9" s="3">
         <v>1400</v>
@@ -806,81 +813,87 @@
         <v>1400</v>
       </c>
       <c r="I9" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J9" s="3">
         <v>1500</v>
       </c>
       <c r="K9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E10" s="3">
         <v>4700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,8 +1009,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,8 +1059,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1700</v>
       </c>
       <c r="I17" s="3">
         <v>1700</v>
       </c>
       <c r="J17" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K17" s="3">
         <v>1800</v>
       </c>
       <c r="L17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,55 +1248,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>32200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>51100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-35800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>18300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>41300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-28200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>24000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-35400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1309,8 +1346,11 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,55 +1396,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E23" s="3">
         <v>36500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>53500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>25900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-35900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1450,8 +1496,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>36500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>53500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-32300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>44100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-35900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>36500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>53500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-32300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>44100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>25400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>25900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-35900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1685,8 +1746,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-32200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-51100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>35800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-18300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-41300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>28200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-24000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>35400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>36500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>53500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-32300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>44100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-35900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>36500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>53500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-32300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>44100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-35900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,26 +2143,27 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2104,8 +2191,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2151,55 +2241,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>800</v>
       </c>
       <c r="Q43" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2245,38 +2341,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2286,14 +2385,17 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2339,55 +2441,61 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>386900</v>
+      </c>
+      <c r="E47" s="3">
         <v>411800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>387200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>347800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>383000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>358700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>324200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>384600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>387700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>375700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>356800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>332900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>633000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>687900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>695900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2433,8 +2541,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2480,8 +2591,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,8 +2691,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2621,8 +2741,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>388900</v>
+      </c>
+      <c r="E54" s="3">
         <v>413400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>390500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>352200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>386100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>359700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>325800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>385700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>389200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>376700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>357600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>337200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>638200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>688700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>696600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,8 +2883,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2792,7 +2923,7 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
@@ -2800,8 +2931,11 @@
       <c r="Q57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2847,55 +2981,61 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5300</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2941,8 +3081,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2988,8 +3131,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3035,8 +3181,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E72" s="3">
         <v>89300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>60400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>35800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>298900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>382800</v>
+      </c>
+      <c r="E76" s="3">
         <v>408800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>381900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>340100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>376700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>359300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>321900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>381800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>388300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>371900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>355300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>336500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>632500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>688300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>696200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>36500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>53500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-32300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>44100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-35900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,8 +4028,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3877,8 +4076,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>36500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>53500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-32300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>44100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-25900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-35900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,8 +4398,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4225,8 +4446,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,8 +4546,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4366,8 +4596,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,55 +4618,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-9600</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-4200</v>
       </c>
       <c r="G96" s="3">
         <v>-4200</v>
       </c>
       <c r="H96" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-4300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-31700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-4300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-298300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-19900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,55 +4816,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11700</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-4200</v>
       </c>
       <c r="G100" s="3">
         <v>-4200</v>
       </c>
       <c r="H100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I100" s="3">
         <v>-6700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-34100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-297900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4667,51 +4916,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E102" s="3">
         <v>26800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>41800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-36600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>37400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-59900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-296000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-55800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>24900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>SOR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,153 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E8" s="3">
         <v>5800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1500</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1400</v>
       </c>
       <c r="G9" s="3">
         <v>1400</v>
@@ -816,84 +823,90 @@
         <v>1400</v>
       </c>
       <c r="J9" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K9" s="3">
         <v>1500</v>
       </c>
       <c r="L9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M9" s="3">
         <v>1600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E10" s="3">
         <v>4200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,8 +1029,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,8 +1082,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1700</v>
       </c>
       <c r="J17" s="3">
         <v>1700</v>
       </c>
       <c r="K17" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L17" s="3">
         <v>1800</v>
       </c>
       <c r="M17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,58 +1282,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>32200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>51100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-35800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>18300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>41300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-28200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>23300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>24000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-35400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1349,8 +1386,11 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,58 +1439,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E23" s="3">
         <v>5000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>36500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>53500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-32300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>25400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>25900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1499,8 +1545,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E26" s="3">
         <v>5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>36500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>53500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-32300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>44100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-25900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>23300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E27" s="3">
         <v>5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>53500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-32300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>44100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-25900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>25400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1749,8 +1810,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-32200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-51100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>35800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-18300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-41300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>28200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-23300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-24000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>35400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E33" s="3">
         <v>5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>53500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-32300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>44100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-25900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>25400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E35" s="3">
         <v>5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>53500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-32300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>44100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-25900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>25400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,29 +2230,30 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2194,8 +2281,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2244,58 +2334,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>800</v>
       </c>
       <c r="R43" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2344,41 +2440,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2388,14 +2487,17 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2444,58 +2546,64 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>334500</v>
+      </c>
+      <c r="E47" s="3">
         <v>386900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>411800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>387200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>347800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>383000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>358700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>324200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>384600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>387700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>375700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>356800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>332900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>633000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>687900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>695900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2544,8 +2652,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2594,8 +2705,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,8 +2811,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2744,8 +2864,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>337600</v>
+      </c>
+      <c r="E54" s="3">
         <v>388900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>413400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>390500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>352200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>386100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>359700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>325800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>385700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>389200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>376700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>357600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>337200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>638200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>688700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>696600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,8 +3014,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2926,7 +3057,7 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
@@ -2934,8 +3065,11 @@
       <c r="R57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2984,58 +3118,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>5900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5300</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3084,8 +3224,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3134,8 +3277,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3184,8 +3330,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E72" s="3">
         <v>63400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>89300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>60400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>35800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>298900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>335200</v>
+      </c>
+      <c r="E76" s="3">
         <v>382800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>408800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>381900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>340100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>376700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>359300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>321900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>381800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>388300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>371900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>355300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>336500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>632500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>688300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>696200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E81" s="3">
         <v>5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>53500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-32300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>44100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-25900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>25400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,8 +4227,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4079,8 +4278,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E89" s="3">
         <v>5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>36500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>53500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-32300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>44100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-25900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,8 +4619,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4449,8 +4670,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,8 +4776,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4599,8 +4829,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,58 +4852,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-31000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-7600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-9600</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-4200</v>
       </c>
       <c r="H96" s="3">
         <v>-4200</v>
       </c>
       <c r="I96" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-4300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-31700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-6600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-298300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-14700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,58 +5062,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-31000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-4200</v>
       </c>
       <c r="H100" s="3">
         <v>-4200</v>
       </c>
       <c r="I100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-6700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-34100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-297900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4919,54 +5168,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>41800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-36600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>37400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-59900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-296000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-55800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>24900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>SOR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,149 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E8" s="3">
         <v>6200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -808,13 +815,13 @@
         <v>1400</v>
       </c>
       <c r="E9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1400</v>
       </c>
       <c r="H9" s="3">
         <v>1400</v>
@@ -826,87 +833,93 @@
         <v>1400</v>
       </c>
       <c r="K9" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="L9" s="3">
         <v>1500</v>
       </c>
       <c r="M9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E10" s="3">
         <v>4800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,8 +1049,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1085,8 +1105,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1161,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1700</v>
       </c>
       <c r="K17" s="3">
         <v>1700</v>
       </c>
       <c r="L17" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M17" s="3">
         <v>1800</v>
       </c>
       <c r="N17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E18" s="3">
         <v>4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,61 +1316,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-41500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>32200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>51100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-35800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>18300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>41300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>23300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>21000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>24000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-35400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1389,8 +1426,11 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1442,61 +1482,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>36500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>53500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-32300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>44100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>25400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>25900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-35900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1548,8 +1594,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>53500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-32300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>44100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-35900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>53500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-32300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>44100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-25900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>25400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>25900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-35900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1813,8 +1874,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E32" s="3">
         <v>41500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-32200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-51100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>35800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-18300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-41300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-23300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-21000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-24000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>35400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>36500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>53500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-32300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>44100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>25900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-35900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>36500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>53500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-32300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>44100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>25900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-35900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,32 +2317,33 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2284,8 +2371,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2337,61 +2427,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
         <v>3000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5200</v>
-      </c>
-      <c r="R43" s="3">
-        <v>800</v>
       </c>
       <c r="S43" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2443,44 +2539,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2490,14 +2589,17 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2549,61 +2651,67 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>333200</v>
+      </c>
+      <c r="E47" s="3">
         <v>334500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>386900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>411800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>387200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>347800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>383000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>358700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>324200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>384600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>387700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>375700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>356800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>332900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>633000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>687900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>695900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2655,8 +2763,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2708,8 +2819,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,8 +2931,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2867,8 +2987,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>337500</v>
+      </c>
+      <c r="E54" s="3">
         <v>337600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>388900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>413400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>390500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>352200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>386100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>359700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>325800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>385700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>389200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>376700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>357600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>337200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>638200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>688700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>696600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,8 +3145,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3060,7 +3191,7 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
@@ -3068,8 +3199,11 @@
       <c r="S57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3121,61 +3255,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5300</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3227,8 +3367,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3280,8 +3423,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3333,8 +3479,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E72" s="3">
         <v>17000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>63400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>89300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>60400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>35800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>298900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>334800</v>
+      </c>
+      <c r="E76" s="3">
         <v>335200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>382800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>408800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>381900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>340100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>376700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>359300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>321900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>381800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>388300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>371900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>355300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>336500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>632500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>688300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>696200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>36500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>53500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-32300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>44100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>25900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-35900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,8 +4426,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4281,8 +4480,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>36500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>53500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-32300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>44100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-25900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>23300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-35900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,8 +4840,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4673,8 +4894,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,8 +5006,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4832,8 +5062,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,8 +5086,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4862,52 +5096,55 @@
         <v>-9300</v>
       </c>
       <c r="E96" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-31000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-7600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-9600</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-4200</v>
       </c>
       <c r="I96" s="3">
         <v>-4200</v>
       </c>
       <c r="J96" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-31700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-6000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-6600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-298300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-19900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-14700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,61 +5308,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-31000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-4200</v>
       </c>
       <c r="I100" s="3">
         <v>-4200</v>
       </c>
       <c r="J100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-34100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-297900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5171,57 +5420,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-47500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>41800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-36600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>37400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-59900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-296000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-55800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>24900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>SOR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,156 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E8" s="3">
         <v>6900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,13 +825,13 @@
         <v>1400</v>
       </c>
       <c r="F9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1400</v>
       </c>
       <c r="I9" s="3">
         <v>1400</v>
@@ -836,90 +843,96 @@
         <v>1400</v>
       </c>
       <c r="L9" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="M9" s="3">
         <v>1500</v>
       </c>
       <c r="N9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E10" s="3">
         <v>5500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,8 +1069,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1128,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1187,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1700</v>
       </c>
       <c r="L17" s="3">
         <v>1700</v>
       </c>
       <c r="M17" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N17" s="3">
         <v>1800</v>
       </c>
       <c r="O17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E18" s="3">
         <v>5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,64 +1350,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E20" s="3">
         <v>4800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-41500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>32200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>51100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-35800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>18300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>41300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-28200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>23300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>21000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>24000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-35400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1429,8 +1466,11 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1485,64 +1525,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E23" s="3">
         <v>10000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>36500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>53500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-32300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>25400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>25900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-35900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,8 +1643,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E26" s="3">
         <v>10000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>53500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-32300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-35900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E27" s="3">
         <v>10000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>53500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-32300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-25900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>25900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-35900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1877,8 +1938,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>41500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-32200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-51100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>35800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-18300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-41300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>28200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-23300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-21000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>35400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E33" s="3">
         <v>10000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>53500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-32300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>25900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-35900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E35" s="3">
         <v>10000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>53500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-32300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>25900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-35900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,35 +2404,36 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2374,8 +2461,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2430,64 +2520,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
         <v>2900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5200</v>
-      </c>
-      <c r="S43" s="3">
-        <v>800</v>
       </c>
       <c r="T43" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2542,47 +2638,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2592,14 +2691,17 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2654,64 +2756,70 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>354400</v>
+      </c>
+      <c r="E47" s="3">
         <v>333200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>334500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>386900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>411800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>387200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>347800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>383000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>358700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>324200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>384600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>387700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>375700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>356800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>332900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>633000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>687900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>695900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2766,8 +2874,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2822,8 +2933,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,8 +3051,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2990,8 +3110,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>359000</v>
+      </c>
+      <c r="E54" s="3">
         <v>337500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>337600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>388900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>413400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>390500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>352200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>386100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>359700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>325800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>385700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>389200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>376700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>357600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>337200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>638200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>688700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>696600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,8 +3276,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3194,7 +3325,7 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
@@ -3202,8 +3333,11 @@
       <c r="T57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3258,64 +3392,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5300</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3370,8 +3510,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3426,8 +3569,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3482,8 +3628,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>400</v>
       </c>
       <c r="T66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E72" s="3">
         <v>17700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>63400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>89300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>60400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>35800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>298900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>353100</v>
+      </c>
+      <c r="E76" s="3">
         <v>334800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>335200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>382800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>408800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>381900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>340100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>376700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>359300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>321900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>381800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>388300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>371900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>355300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>336500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>632500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>688300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>696200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E81" s="3">
         <v>10000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>53500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-32300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>25900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-35900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,8 +4625,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4483,8 +4682,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E89" s="3">
         <v>10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>36500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>53500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-32300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>44100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-25900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>23300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-35900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,8 +5061,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4897,8 +5118,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,8 +5236,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5065,8 +5295,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,64 +5320,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-9300</v>
+        <v>-9400</v>
       </c>
       <c r="E96" s="3">
         <v>-9300</v>
       </c>
       <c r="F96" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="G96" s="3">
         <v>-31000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-7600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-9600</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-4200</v>
       </c>
       <c r="J96" s="3">
         <v>-4200</v>
       </c>
       <c r="K96" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="L96" s="3">
         <v>-4300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-31700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-6000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-298300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-19900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-14700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,64 +5554,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-31000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-4200</v>
       </c>
       <c r="J100" s="3">
         <v>-4200</v>
       </c>
       <c r="K100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="L100" s="3">
         <v>-6700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-34100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-297900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5423,60 +5672,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-47500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>26800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>41800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-36600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>17400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>37400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-59900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-296000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-55800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>24900</v>
       </c>
     </row>
